--- a/opm_hero_property/heroes/38.xlsx
+++ b/opm_hero_property/heroes/38.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11150</v>
       </c>
       <c r="D4" t="n">
-        <v>11150</v>
+        <v>11445</v>
       </c>
       <c r="E4" t="n">
         <v>244</v>
@@ -1304,7 +1305,7 @@
         <v>12453</v>
       </c>
       <c r="D5" t="n">
-        <v>12453</v>
+        <v>13083</v>
       </c>
       <c r="E5" t="n">
         <v>366</v>
@@ -1411,7 +1412,7 @@
         <v>13987</v>
       </c>
       <c r="D6" t="n">
-        <v>13987</v>
+        <v>15009</v>
       </c>
       <c r="E6" t="n">
         <v>502</v>
@@ -1518,7 +1519,7 @@
         <v>15750</v>
       </c>
       <c r="D7" t="n">
-        <v>15750</v>
+        <v>19031</v>
       </c>
       <c r="E7" t="n">
         <v>941</v>
@@ -1625,7 +1626,7 @@
         <v>17744</v>
       </c>
       <c r="D8" t="n">
-        <v>17744</v>
+        <v>24594</v>
       </c>
       <c r="E8" t="n">
         <v>1393</v>
@@ -1732,7 +1733,7 @@
         <v>20044</v>
       </c>
       <c r="D9" t="n">
-        <v>20044</v>
+        <v>32084</v>
       </c>
       <c r="E9" t="n">
         <v>1839</v>
@@ -1839,7 +1840,7 @@
         <v>21270</v>
       </c>
       <c r="D10" t="n">
-        <v>21270</v>
+        <v>38322</v>
       </c>
       <c r="E10" t="n">
         <v>2174</v>
@@ -1946,7 +1947,7 @@
         <v>22727</v>
       </c>
       <c r="D11" t="n">
-        <v>22727</v>
+        <v>45980</v>
       </c>
       <c r="E11" t="n">
         <v>2536</v>
@@ -2053,7 +2054,7 @@
         <v>25794</v>
       </c>
       <c r="D12" t="n">
-        <v>25794</v>
+        <v>59611</v>
       </c>
       <c r="E12" t="n">
         <v>3121</v>
@@ -2160,7 +2161,7 @@
         <v>26407</v>
       </c>
       <c r="D13" t="n">
-        <v>26407</v>
+        <v>61538</v>
       </c>
       <c r="E13" t="n">
         <v>3512</v>
@@ -2267,7 +2268,7 @@
         <v>27021</v>
       </c>
       <c r="D14" t="n">
-        <v>27021</v>
+        <v>63465</v>
       </c>
       <c r="E14" t="n">
         <v>3902</v>
@@ -2374,7 +2375,7 @@
         <v>27634</v>
       </c>
       <c r="D15" t="n">
-        <v>27634</v>
+        <v>65391</v>
       </c>
       <c r="E15" t="n">
         <v>4292</v>
@@ -2481,7 +2482,7 @@
         <v>28247</v>
       </c>
       <c r="D16" t="n">
-        <v>28247</v>
+        <v>67318</v>
       </c>
       <c r="E16" t="n">
         <v>4682</v>
@@ -2588,7 +2589,7 @@
         <v>28861</v>
       </c>
       <c r="D17" t="n">
-        <v>28861</v>
+        <v>69245</v>
       </c>
       <c r="E17" t="n">
         <v>5072</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>38</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29123.654444</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5327.8229772</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2149.8828514</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>38</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>40788.9223762</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7617.9798336</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3300.697908</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>38</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>73525.658612</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13406.189</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7011.809576</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="X4" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>38</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>73525.658612</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13406.189</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7011.809576</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3080</v>
+      </c>
+      <c r="X5" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>860</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>38</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>66539.70705200001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12480.119</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6282.428696</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X6" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>860</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>38</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>268029.9263004</v>
+      </c>
+      <c r="U7" t="n">
+        <v>46591.923776</v>
+      </c>
+      <c r="V7" t="n">
+        <v>30408.5373122</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4520</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1620</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>38</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>236216.6828484</v>
+      </c>
+      <c r="U8" t="n">
+        <v>42682.53689600001</v>
+      </c>
+      <c r="V8" t="n">
+        <v>26545.8925262</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3620</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1620</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>38</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>246821.0973324</v>
+      </c>
+      <c r="U9" t="n">
+        <v>43985.665856</v>
+      </c>
+      <c r="V9" t="n">
+        <v>27833.4407882</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3920</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1620</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>38</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>257425.5118164</v>
+      </c>
+      <c r="U10" t="n">
+        <v>45288.794816</v>
+      </c>
+      <c r="V10" t="n">
+        <v>29120.9890502</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4220</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1620</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>38</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>268029.9263004</v>
+      </c>
+      <c r="U11" t="n">
+        <v>46591.923776</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30408.5373122</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4520</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1620</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>38</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>268029.9263004</v>
+      </c>
+      <c r="U12" t="n">
+        <v>46591.923776</v>
+      </c>
+      <c r="V12" t="n">
+        <v>30408.5373122</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4440</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1560</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>38</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>397750.7105364</v>
+      </c>
+      <c r="U13" t="n">
+        <v>69692.75880559999</v>
+      </c>
+      <c r="V13" t="n">
+        <v>51221.264902</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4600</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1680</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>38</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>397750.7105364</v>
+      </c>
+      <c r="U14" t="n">
+        <v>69692.75880559999</v>
+      </c>
+      <c r="V14" t="n">
+        <v>51221.264902</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4680</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1740</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>38</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>961040.4545476</v>
+      </c>
+      <c r="U15" t="n">
+        <v>172460.1605456</v>
+      </c>
+      <c r="V15" t="n">
+        <v>142893.9784</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1980</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>38</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5007423.1536816</v>
+      </c>
+      <c r="U16" t="n">
+        <v>888460.9820052</v>
+      </c>
+      <c r="V16" t="n">
+        <v>723006.412339</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5640</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>38</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8187124.8824328</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1453560.5300108</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1174852.506548</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6680</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3240</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>38</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>222116.962703</v>
+      </c>
+      <c r="U18" t="n">
+        <v>43514.825644</v>
+      </c>
+      <c r="V18" t="n">
+        <v>24271.9835856</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X18" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>860</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>38</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>298895.6710296</v>
+      </c>
+      <c r="U19" t="n">
+        <v>55844.0821032</v>
+      </c>
+      <c r="V19" t="n">
+        <v>34432.732664</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3840</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1560</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>38</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>384622.4653996</v>
+      </c>
+      <c r="U20" t="n">
+        <v>69341.74625359999</v>
+      </c>
+      <c r="V20" t="n">
+        <v>49006.3737794</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4220</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1620</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>38</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>442921.6360378</v>
+      </c>
+      <c r="U21" t="n">
+        <v>81086.0929288</v>
+      </c>
+      <c r="V21" t="n">
+        <v>58747.674439</v>
+      </c>
+      <c r="W21" t="n">
+        <v>4680</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1740</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>38</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>509926.56644</v>
+      </c>
+      <c r="U22" t="n">
+        <v>98540.62724720001</v>
+      </c>
+      <c r="V22" t="n">
+        <v>71691.7789132</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1980</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>38</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>647424.5501032</v>
+      </c>
+      <c r="U23" t="n">
+        <v>134139.1568324</v>
+      </c>
+      <c r="V23" t="n">
+        <v>98000.92326700001</v>
+      </c>
+      <c r="W23" t="n">
+        <v>5640</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/38.xlsx
+++ b/opm_hero_property/heroes/38.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29123.654444</v>
+        <v>5142300.1536816</v>
       </c>
       <c r="U2" t="n">
-        <v>5327.8229772</v>
+        <v>912188.9820052</v>
       </c>
       <c r="V2" t="n">
-        <v>2149.8828514</v>
+        <v>744846.412339</v>
       </c>
       <c r="W2" t="n">
-        <v>3000</v>
+        <v>5640</v>
       </c>
       <c r="X2" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>800</v>
+        <v>2460</v>
       </c>
       <c r="AA2" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AB2" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11314574.629595</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1819149.07087173</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2007105.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15736140.00046673</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>40788.9223762</v>
+        <v>647424.5501032</v>
       </c>
       <c r="U3" t="n">
-        <v>7617.9798336</v>
+        <v>134139.1568324</v>
       </c>
       <c r="V3" t="n">
-        <v>3300.697908</v>
+        <v>98000.92326700001</v>
       </c>
       <c r="W3" t="n">
-        <v>3000</v>
+        <v>5640</v>
       </c>
       <c r="X3" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>800</v>
+        <v>2460</v>
       </c>
       <c r="AA3" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AB3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1282095.818515</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>207514.97251701</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>480680.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2153359.04103201</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>73525.658612</v>
+        <v>7370.454</v>
       </c>
       <c r="U4" t="n">
-        <v>13406.189</v>
+        <v>1628.8603</v>
       </c>
       <c r="V4" t="n">
-        <v>7011.809576</v>
+        <v>562.6449</v>
       </c>
       <c r="W4" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="X4" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19121.948245</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4456.85</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23578.798245</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>73525.658612</v>
+        <v>19648.2617</v>
       </c>
       <c r="U5" t="n">
-        <v>13406.189</v>
+        <v>4082.3664</v>
       </c>
       <c r="V5" t="n">
-        <v>7011.809576</v>
+        <v>1710.978</v>
       </c>
       <c r="W5" t="n">
-        <v>3080</v>
+        <v>777</v>
       </c>
       <c r="X5" t="n">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>860</v>
+        <v>320</v>
       </c>
       <c r="AA5" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="AB5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>48595.96336</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11828.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60424.76336</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>66539.70705200001</v>
+        <v>55306.842</v>
       </c>
       <c r="U6" t="n">
-        <v>12480.119</v>
+        <v>10569.25</v>
       </c>
       <c r="V6" t="n">
-        <v>6282.428696</v>
+        <v>5458.116</v>
       </c>
       <c r="W6" t="n">
-        <v>2180</v>
+        <v>1300</v>
       </c>
       <c r="X6" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>860</v>
+        <v>600</v>
       </c>
       <c r="AA6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>116184.534</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9526.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>164553.834</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>268029.9263004</v>
+        <v>55306.842</v>
       </c>
       <c r="U7" t="n">
-        <v>46591.923776</v>
+        <v>10569.25</v>
       </c>
       <c r="V7" t="n">
-        <v>30408.5373122</v>
+        <v>5458.116</v>
       </c>
       <c r="W7" t="n">
-        <v>4520</v>
+        <v>1380</v>
       </c>
       <c r="X7" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>1620</v>
+        <v>660</v>
       </c>
       <c r="AA7" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>116184.534</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9709.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>164736.834</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>236216.6828484</v>
+        <v>55539.70705200001</v>
       </c>
       <c r="U8" t="n">
-        <v>42682.53689600001</v>
+        <v>10600.119</v>
       </c>
       <c r="V8" t="n">
-        <v>26545.8925262</v>
+        <v>5482.428696</v>
       </c>
       <c r="W8" t="n">
-        <v>3620</v>
+        <v>1380</v>
       </c>
       <c r="X8" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>1620</v>
+        <v>660</v>
       </c>
       <c r="AA8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>116184.534</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>585.6591540000001</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9709.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>165322.493154</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,24 +7776,24 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>246821.0973324</v>
+        <v>234367.2414</v>
       </c>
       <c r="U9" t="n">
-        <v>43985.665856</v>
+        <v>42709.224</v>
       </c>
       <c r="V9" t="n">
-        <v>27833.4407882</v>
+        <v>26544.1377</v>
       </c>
       <c r="W9" t="n">
-        <v>3920</v>
+        <v>3620</v>
       </c>
       <c r="X9" t="n">
         <v>1440</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>525745.028775</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>694511.6787750002</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,24 +7911,24 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>257425.5118164</v>
+        <v>235427.6828484</v>
       </c>
       <c r="U10" t="n">
-        <v>45288.794816</v>
+        <v>42839.53689600001</v>
       </c>
       <c r="V10" t="n">
-        <v>29120.9890502</v>
+        <v>26672.8925262</v>
       </c>
       <c r="W10" t="n">
-        <v>4220</v>
+        <v>3620</v>
       </c>
       <c r="X10" t="n">
         <v>1440</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>525745.028775</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2699.94068145</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>697211.6194564501</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,24 +8046,24 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>268029.9263004</v>
+        <v>246032.0973324</v>
       </c>
       <c r="U11" t="n">
-        <v>46591.923776</v>
+        <v>44142.665856</v>
       </c>
       <c r="V11" t="n">
-        <v>30408.5373122</v>
+        <v>27960.4407882</v>
       </c>
       <c r="W11" t="n">
-        <v>4520</v>
+        <v>3920</v>
       </c>
       <c r="X11" t="n">
         <v>1440</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>525745.028775</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>30194.34749595</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>724706.0262709501</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,24 +8181,24 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>268029.9263004</v>
+        <v>256636.5118164</v>
       </c>
       <c r="U12" t="n">
-        <v>46591.923776</v>
+        <v>45445.794816</v>
       </c>
       <c r="V12" t="n">
-        <v>30408.5373122</v>
+        <v>29247.9890502</v>
       </c>
       <c r="W12" t="n">
-        <v>4440</v>
+        <v>4220</v>
       </c>
       <c r="X12" t="n">
         <v>1440</v>
@@ -7927,7 +8207,7 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1560</v>
+        <v>1620</v>
       </c>
       <c r="AA12" t="n">
         <v>2160</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>525745.028775</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>57688.75431045001</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>752200.43308545</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,20 +8320,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>397750.7105364</v>
+        <v>267240.9263004</v>
       </c>
       <c r="U13" t="n">
-        <v>69692.75880559999</v>
+        <v>46748.923776</v>
       </c>
       <c r="V13" t="n">
-        <v>51221.264902</v>
+        <v>30535.5373122</v>
       </c>
       <c r="W13" t="n">
-        <v>4600</v>
+        <v>4520</v>
       </c>
       <c r="X13" t="n">
         <v>1440</v>
@@ -8038,7 +8342,7 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1680</v>
+        <v>1620</v>
       </c>
       <c r="AA13" t="n">
         <v>2160</v>
@@ -8050,25 +8354,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>525745.028775</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>85183.16112495001</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>779694.83989995</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,20 +8455,20 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>397750.7105364</v>
+        <v>267240.9263004</v>
       </c>
       <c r="U14" t="n">
-        <v>69692.75880559999</v>
+        <v>46748.923776</v>
       </c>
       <c r="V14" t="n">
-        <v>51221.264902</v>
+        <v>30535.5373122</v>
       </c>
       <c r="W14" t="n">
-        <v>4680</v>
+        <v>4440</v>
       </c>
       <c r="X14" t="n">
         <v>1440</v>
@@ -8149,7 +8477,7 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1740</v>
+        <v>1560</v>
       </c>
       <c r="AA14" t="n">
         <v>2160</v>
@@ -8161,25 +8489,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>525745.028775</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>85183.16112495001</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>39155.4</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>779511.83989995</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,20 +8590,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>961040.4545476</v>
+        <v>400250.7105364</v>
       </c>
       <c r="U15" t="n">
-        <v>172460.1605456</v>
+        <v>70500.75880559999</v>
       </c>
       <c r="V15" t="n">
-        <v>142893.9784</v>
+        <v>51995.264902</v>
       </c>
       <c r="W15" t="n">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="X15" t="n">
         <v>1440</v>
@@ -8260,7 +8612,7 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1980</v>
+        <v>1680</v>
       </c>
       <c r="AA15" t="n">
         <v>2160</v>
@@ -8272,25 +8624,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>809687.9915100001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>131059.32797154</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111894</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1200168.71948154</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,20 +8725,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5007423.1536816</v>
+        <v>400250.7105364</v>
       </c>
       <c r="U16" t="n">
-        <v>888460.9820052</v>
+        <v>70500.75880559999</v>
       </c>
       <c r="V16" t="n">
-        <v>723006.412339</v>
+        <v>51995.264902</v>
       </c>
       <c r="W16" t="n">
-        <v>5640</v>
+        <v>4680</v>
       </c>
       <c r="X16" t="n">
         <v>1440</v>
@@ -8371,7 +8747,7 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2460</v>
+        <v>1740</v>
       </c>
       <c r="AA16" t="n">
         <v>2160</v>
@@ -8383,25 +8759,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>809687.9915100001</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>131059.32797154</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>112077</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1200351.71948154</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,20 +8860,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8187124.8824328</v>
+        <v>998535.4545476</v>
       </c>
       <c r="U17" t="n">
-        <v>1453560.5300108</v>
+        <v>179317.1605456</v>
       </c>
       <c r="V17" t="n">
-        <v>1174852.506548</v>
+        <v>149526.9784</v>
       </c>
       <c r="W17" t="n">
-        <v>6680</v>
+        <v>5000</v>
       </c>
       <c r="X17" t="n">
         <v>1440</v>
@@ -8482,7 +8882,7 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>3240</v>
+        <v>1980</v>
       </c>
       <c r="AA17" t="n">
         <v>2160</v>
@@ -8494,58 +8894,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1855738.46696</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>300250.77115224</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685015</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3111008.98811224</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>222116.962703</v>
+        <v>5142300.1536816</v>
       </c>
       <c r="U18" t="n">
-        <v>43514.825644</v>
+        <v>912188.9820052</v>
       </c>
       <c r="V18" t="n">
-        <v>24271.9835856</v>
+        <v>744846.412339</v>
       </c>
       <c r="W18" t="n">
-        <v>2180</v>
+        <v>5640</v>
       </c>
       <c r="X18" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>860</v>
+        <v>2460</v>
       </c>
       <c r="AA18" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AB18" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>400</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>256</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11314574.629595</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1819149.07087173</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2007105.4</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15736140.00046673</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,34 +9116,34 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>298895.6710296</v>
+        <v>8496842.8824328</v>
       </c>
       <c r="U19" t="n">
-        <v>55844.0821032</v>
+        <v>1507593.5300108</v>
       </c>
       <c r="V19" t="n">
-        <v>34432.732664</v>
+        <v>1224084.506548</v>
       </c>
       <c r="W19" t="n">
-        <v>3840</v>
+        <v>6680</v>
       </c>
       <c r="X19" t="n">
         <v>1440</v>
@@ -8704,7 +9152,7 @@
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1560</v>
+        <v>3240</v>
       </c>
       <c r="AA19" t="n">
         <v>2160</v>
@@ -8716,25 +9164,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18360300.03253</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2950312.71962832</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3470479</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>25956972.15215832</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>384622.4653996</v>
+        <v>211116.962703</v>
       </c>
       <c r="U20" t="n">
-        <v>69341.74625359999</v>
+        <v>41634.825644</v>
       </c>
       <c r="V20" t="n">
-        <v>49006.3737794</v>
+        <v>23471.9835856</v>
       </c>
       <c r="W20" t="n">
-        <v>4220</v>
+        <v>1380</v>
       </c>
       <c r="X20" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>1620</v>
+        <v>660</v>
       </c>
       <c r="AA20" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>554918.4476000001</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2822.0176638</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>33359.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>638479.1652638</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>442921.6360378</v>
+        <v>275795.6710296</v>
       </c>
       <c r="U21" t="n">
-        <v>81086.0929288</v>
+        <v>51896.0821032</v>
       </c>
       <c r="V21" t="n">
-        <v>58747.674439</v>
+        <v>32752.732664</v>
       </c>
       <c r="W21" t="n">
-        <v>4680</v>
+        <v>2160</v>
       </c>
       <c r="X21" t="n">
-        <v>1440</v>
+        <v>900</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>1740</v>
+        <v>1020</v>
       </c>
       <c r="AA21" t="n">
-        <v>2160</v>
+        <v>1350</v>
       </c>
       <c r="AB21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>657742.16342</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49023</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>37544.98693968001</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>66719.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>830057.85035968</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,34 +9521,34 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>509926.56644</v>
+        <v>384622.4653996</v>
       </c>
       <c r="U22" t="n">
-        <v>98540.62724720001</v>
+        <v>69341.74625359999</v>
       </c>
       <c r="V22" t="n">
-        <v>71691.7789132</v>
+        <v>49006.3737794</v>
       </c>
       <c r="W22" t="n">
-        <v>5000</v>
+        <v>4220</v>
       </c>
       <c r="X22" t="n">
         <v>1440</v>
@@ -9037,7 +9557,7 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1980</v>
+        <v>1620</v>
       </c>
       <c r="AA22" t="n">
         <v>2160</v>
@@ -9049,25 +9569,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>832823.467785</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>91274.39599598999</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>96891.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1158679.16378099</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,20 +9670,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>647424.5501032</v>
+        <v>442921.6360378</v>
       </c>
       <c r="U23" t="n">
-        <v>134139.1568324</v>
+        <v>81086.0929288</v>
       </c>
       <c r="V23" t="n">
-        <v>98000.92326700001</v>
+        <v>58747.674439</v>
       </c>
       <c r="W23" t="n">
-        <v>5640</v>
+        <v>4680</v>
       </c>
       <c r="X23" t="n">
         <v>1440</v>
@@ -9148,7 +9692,7 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2460</v>
+        <v>1740</v>
       </c>
       <c r="AA23" t="n">
         <v>2160</v>
@@ -9160,25 +9704,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>909593.047205</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>147204.90806577</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>153419</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1354887.80527077</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>38</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>509926.56644</v>
+      </c>
+      <c r="U24" t="n">
+        <v>98540.62724720001</v>
+      </c>
+      <c r="V24" t="n">
+        <v>71691.7789132</v>
+      </c>
+      <c r="W24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1980</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1030680.26247</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>166822.91072658</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>262506.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1617489.62319658</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>647424.5501032</v>
+      </c>
+      <c r="U25" t="n">
+        <v>134139.1568324</v>
+      </c>
+      <c r="V25" t="n">
+        <v>98000.92326700001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5640</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1282095.818515</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>207514.97251701</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>480680.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2153359.04103201</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/38.xlsx
+++ b/opm_hero_property/heroes/38.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,21642;31,12304;41,2442</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,36912;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,18444;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,2618;31,1486;41,337</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,4459;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2228;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>21642.2325</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>12304.1625</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2442.5629</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>36912.4875</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>18444.5255</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>2618.805</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>1486.4325</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>337.2173</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>4459.2975</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>2228.2331</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,21644;31,12306;41,2442</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,36918;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,18447;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,2620;31,1488;41,337</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,4465;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2231;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>21644.3675</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>12306.105</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2442.9361</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>36918.315</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>18447.4374</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>2620.94</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1488.375</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>337.5905</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>4465.125</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>2231.145</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,23111;31,13700;41,2784</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,41100;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,20537;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,2778;31,1638;41,375</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,4915;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2456;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>23111.194988</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>13700.2002375</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2784.93973665</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>41100.6007125</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>20537.2525465</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>2778.955676</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1638.4312875</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>375.37169745</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>4915.2938625</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>2456.0865205</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,24773;31,15279;41,3172</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,45838;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,22904;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,2957;31,1808;41,418</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,5424;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2710;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>24773.882518</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>15279.57180225</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3172.60815951</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>45838.71540675</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>22904.80573023</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>2957.815861</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1808.25263325</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>418.18451103</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>5424.75789975</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>2710.65680451</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53456;31,11425;41,4083</t>
+          <t>21,26728;31,17138;41,3628</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,1;31,44339;41,1</t>
+          <t>21,0;31,51416;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,1;31,22169;41,1</t>
+          <t>21,0;31,25691;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6335;31,1338;41,527</t>
+          <t>21,3167;31,2008;41,468</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,1;31,5194;41,1</t>
+          <t>21,0;31,6024;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,1;31,2597;41,1</t>
+          <t>21,0;31,3010;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53456</v>
+        <v>26728.4761975</v>
       </c>
       <c r="O6" t="n">
-        <v>11425</v>
+        <v>17138.80502775</v>
       </c>
       <c r="P6" t="n">
-        <v>4083</v>
+        <v>3628.40354573</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44339</v>
+        <v>51416.41508325</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>22169</v>
+        <v>25691.88487017</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6335</v>
+        <v>3167.96123875</v>
       </c>
       <c r="X6" t="n">
-        <v>1338</v>
+        <v>2008.04607675</v>
       </c>
       <c r="Y6" t="n">
-        <v>527</v>
+        <v>468.49033469</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>5194</v>
+        <v>6024.138230250001</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>2597</v>
+        <v>3010.15669029</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,59795;31,12852;41,5155</t>
+          <t>21,29897;31,19278;41,4580</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,1;31,49874;41,1</t>
+          <t>21,0;31,57835;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,1;31,24937;41,1</t>
+          <t>21,0;31,28899;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7024;31,1493;41,646</t>
+          <t>21,3512;31,2240;41,574</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,1;31,5796;41,1</t>
+          <t>21,0;31,6721;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,1;31,2898;41,1</t>
+          <t>21,0;31,3358;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>59795</v>
+        <v>29897.595245</v>
       </c>
       <c r="O7" t="n">
-        <v>12852</v>
+        <v>19278.3661875</v>
       </c>
       <c r="P7" t="n">
-        <v>5155</v>
+        <v>4580.99839307</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>49874</v>
+        <v>57835.0985625</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>24937</v>
+        <v>28899.1889325</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7024</v>
+        <v>3512.1013025</v>
       </c>
       <c r="X7" t="n">
-        <v>1493</v>
+        <v>2240.4414375</v>
       </c>
       <c r="Y7" t="n">
-        <v>646</v>
+        <v>574.3151817099999</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>5796</v>
+        <v>6721.3243125</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>2898</v>
+        <v>3358.5284025</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,67990;31,14464;41,6637</t>
+          <t>21,33995;31,21696;41,5898</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,1;31,56131;41,1</t>
+          <t>21,0;31,65090;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,1;31,28065;41,1</t>
+          <t>21,0;31,32524;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7910;31,1667;41,810</t>
+          <t>21,3955;31,2501;41,720</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,1;31,6472;41,1</t>
+          <t>21,0;31,7505;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,1;31,3236;41,1</t>
+          <t>21,0;31,3750;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>67990</v>
+        <v>33995.1480785</v>
       </c>
       <c r="O8" t="n">
-        <v>14464</v>
+        <v>21696.739008</v>
       </c>
       <c r="P8" t="n">
-        <v>6637</v>
+        <v>5898.20219818</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>56131</v>
+        <v>65090.217024</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>28065</v>
+        <v>32524.44495104</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7910</v>
+        <v>3955.25371325</v>
       </c>
       <c r="X8" t="n">
-        <v>1667</v>
+        <v>2501.758896</v>
       </c>
       <c r="Y8" t="n">
-        <v>810</v>
+        <v>720.31522954</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>6472</v>
+        <v>7505.276688</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>3236</v>
+        <v>3750.255716480001</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,78531;31,16323;41,8633</t>
+          <t>21,39265;31,24484;41,7671</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,1;31,63343;41,1</t>
+          <t>21,0;31,73454;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,1;31,31671;41,1</t>
+          <t>21,0;31,36703;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9046;31,1867;41,1031</t>
+          <t>21,4523;31,2801;41,916</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,1;31,7247;41,1</t>
+          <t>21,0;31,8404;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,1;31,3623;41,1</t>
+          <t>21,0;31,4199;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>78531</v>
+        <v>39265.6272505</v>
       </c>
       <c r="O9" t="n">
-        <v>16323</v>
+        <v>24484.666983</v>
       </c>
       <c r="P9" t="n">
-        <v>8633</v>
+        <v>7671.15793348</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>63343</v>
+        <v>73454.00094900001</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>31671</v>
+        <v>36703.68174404</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9046</v>
+        <v>4523.141607250001</v>
       </c>
       <c r="X9" t="n">
-        <v>1867</v>
+        <v>2801.608971</v>
       </c>
       <c r="Y9" t="n">
-        <v>1031</v>
+        <v>916.36711044</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>7247</v>
+        <v>8404.826913000001</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>3623</v>
+        <v>4199.74525748</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,86428;31,17313;41,10294</t>
+          <t>21,43214;31,25970;41,9147</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,1;31,67187;41,1</t>
+          <t>21,0;31,77911;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,1;31,33593;41,1</t>
+          <t>21,0;31,38931;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9897;31,1974;41,1215</t>
+          <t>21,4948;31,2961;41,1079</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,1;31,7661;41,1</t>
+          <t>21,0;31,8883;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,1;31,3830;41,1</t>
+          <t>21,0;31,4439;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>86428</v>
+        <v>43214.2375525</v>
       </c>
       <c r="O10" t="n">
-        <v>17313</v>
+        <v>25970.6113275</v>
       </c>
       <c r="P10" t="n">
-        <v>10294</v>
+        <v>9147.74371834</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>67187</v>
+        <v>77911.8339825</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>33593</v>
+        <v>38931.1830757</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>9897</v>
+        <v>4948.613136250001</v>
       </c>
       <c r="X10" t="n">
-        <v>1974</v>
+        <v>2961.2996175</v>
       </c>
       <c r="Y10" t="n">
-        <v>1215</v>
+        <v>1079.63831002</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>7661</v>
+        <v>8883.8988525</v>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>3830</v>
+        <v>4439.1291409</v>
       </c>
       <c r="AE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,96059;31,18490;41,12334</t>
+          <t>21,48029;31,27736;41,10960</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,1;31,71755;41,1</t>
+          <t>21,0;31,83208;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,1;31,35877;41,1</t>
+          <t>21,0;31,41577;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,10933;31,2100;41,1440</t>
+          <t>21,5466;31,3150;41,1279</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,1;31,8151;41,1</t>
+          <t>21,0;31,9452;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,1;31,4075;41,1</t>
+          <t>21,0;31,4723;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>96059</v>
+        <v>48029.78814900001</v>
       </c>
       <c r="O11" t="n">
-        <v>18490</v>
+        <v>27736.25983275</v>
       </c>
       <c r="P11" t="n">
-        <v>12334</v>
+        <v>10960.2354406</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>71755</v>
+        <v>83208.77949824999</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>35877</v>
+        <v>41577.97426357</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>10933</v>
+        <v>5466.7714605</v>
       </c>
       <c r="X11" t="n">
-        <v>2100</v>
+        <v>3150.80486175</v>
       </c>
       <c r="Y11" t="n">
-        <v>1440</v>
+        <v>1279.8563718</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>8151</v>
+        <v>9452.414585250001</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>4075</v>
+        <v>4723.20652609</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,113805;31,20968;41,15964</t>
+          <t>21,56902;31,31452;41,14186</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,1;31,81370;41,1</t>
+          <t>21,0;31,94358;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,1;31,40685;41,1</t>
+          <t>21,0;31,47149;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,12840;31,2366;41,1840</t>
+          <t>21,6420;31,3549;41,1635</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,1;31,9182;41,1</t>
+          <t>21,0;31,10648;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,1;31,4591;41,1</t>
+          <t>21,0;31,5320;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>113805</v>
+        <v>56902.69254950001</v>
       </c>
       <c r="O12" t="n">
-        <v>20968</v>
+        <v>31452.7281705</v>
       </c>
       <c r="P12" t="n">
-        <v>15964</v>
+        <v>14186.03329567</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>81370</v>
+        <v>94358.1845115</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>40685</v>
+        <v>47149.13727654001</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>12840</v>
+        <v>6420.222992750001</v>
       </c>
       <c r="X12" t="n">
-        <v>2366</v>
+        <v>3549.4754085</v>
       </c>
       <c r="Y12" t="n">
-        <v>1840</v>
+        <v>1635.85763951</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>9182</v>
+        <v>10648.4262255</v>
       </c>
       <c r="AB12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>4591</v>
+        <v>5320.83265998</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,116552;31,21465;41,16479</t>
+          <t>21,58276;31,32198;41,14643</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,1;31,83299;41,1</t>
+          <t>21,0;31,96595;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,1;31,41649;41,1</t>
+          <t>21,0;31,48266;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,13145;31,2421;41,1899</t>
+          <t>21,6572;31,3631;41,1687</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,1;31,9396;41,1</t>
+          <t>21,0;31,10895;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,1;31,4698;41,1</t>
+          <t>21,0;31,5444;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>116552</v>
+        <v>58276.29751650001</v>
       </c>
       <c r="O13" t="n">
-        <v>21465</v>
+        <v>32198.35159275</v>
       </c>
       <c r="P13" t="n">
-        <v>16479</v>
+        <v>14643.30912586</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>83299</v>
+        <v>96595.05477825001</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>41649</v>
+        <v>48266.86229237</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>13145</v>
+        <v>6572.52391425</v>
       </c>
       <c r="X13" t="n">
-        <v>2421</v>
+        <v>3631.97198175</v>
       </c>
       <c r="Y13" t="n">
-        <v>1899</v>
+        <v>1687.43337258</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>9396</v>
+        <v>10895.91594525</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>4698</v>
+        <v>5444.498951690001</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,119299;31,21963;41,16994</t>
+          <t>21,59649;31,32945;41,15100</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,1;31,85231;41,1</t>
+          <t>21,0;31,98835;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,1;31,42615;41,1</t>
+          <t>21,0;31,49386;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13449;31,2476;41,1957</t>
+          <t>21,6724;31,3714;41,1739</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,1;31,9609;41,1</t>
+          <t>21,0;31,11143;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,1;31,4804;41,1</t>
+          <t>21,0;31,5568;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>119299</v>
+        <v>59649.8849835</v>
       </c>
       <c r="O14" t="n">
-        <v>21963</v>
+        <v>32945.18562825</v>
       </c>
       <c r="P14" t="n">
-        <v>16994</v>
+        <v>15100.58495605</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>85231</v>
+        <v>98835.55688475001</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>42615</v>
+        <v>49386.40207511001</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13449</v>
+        <v>6724.807335750001</v>
       </c>
       <c r="X14" t="n">
-        <v>2476</v>
+        <v>3714.597395249999</v>
       </c>
       <c r="Y14" t="n">
-        <v>1957</v>
+        <v>1739.00910565</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>9609</v>
+        <v>11143.79218575</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>4804</v>
+        <v>5568.35838107</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,122051;31,22460;41,17508</t>
+          <t>21,61025;31,33690;41,15557</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,1;31,87160;41,1</t>
+          <t>21,0;31,101072;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,1;31,43580;41,1</t>
+          <t>21,0;31,50504;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,13754;31,2531;41,2015</t>
+          <t>21,6877;31,3797;41,1790</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,1;31,9823;41,1</t>
+          <t>21,0;31,11391;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,1;31,4911;41,1</t>
+          <t>21,0;31,5692;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>122051</v>
+        <v>61025.601364</v>
       </c>
       <c r="O15" t="n">
-        <v>22460</v>
+        <v>33690.8090505</v>
       </c>
       <c r="P15" t="n">
-        <v>17508</v>
+        <v>15557.65544227</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>87160</v>
+        <v>101072.4271515</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>43580</v>
+        <v>50504.12709094</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>13754</v>
+        <v>6877.317328000001</v>
       </c>
       <c r="X15" t="n">
-        <v>2531</v>
+        <v>3797.0939685</v>
       </c>
       <c r="Y15" t="n">
-        <v>2015</v>
+        <v>1790.59002931</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>9823</v>
+        <v>11391.2819055</v>
       </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>4911</v>
+        <v>5692.024672780001</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,124798;31,22957;41,18023</t>
+          <t>21,62399;31,34436;41,16014</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,1;31,89089;41,1</t>
+          <t>21,0;31,103309;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,1;31,44544;41,1</t>
+          <t>21,0;31,51621;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,14059;31,2586;41,2073</t>
+          <t>21,7029;31,3879;41,1842</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,1;31,10036;41,1</t>
+          <t>21,0;31,11638;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,1;31,5018;41,1</t>
+          <t>21,0;31,5815;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>124798</v>
+        <v>62399.18883100001</v>
       </c>
       <c r="O16" t="n">
-        <v>22957</v>
+        <v>34436.43247275</v>
       </c>
       <c r="P16" t="n">
-        <v>18023</v>
+        <v>16014.93127246</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89089</v>
+        <v>103309.29741825</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>44544</v>
+        <v>51621.85210677</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14059</v>
+        <v>7029.6007495</v>
       </c>
       <c r="X16" t="n">
-        <v>2586</v>
+        <v>3879.59054175</v>
       </c>
       <c r="Y16" t="n">
-        <v>2073</v>
+        <v>1842.16576238</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>10036</v>
+        <v>11638.77162525</v>
       </c>
       <c r="AB16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>5018</v>
+        <v>5815.690964490001</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,127545;31,23455;41,18537</t>
+          <t>21,63772;31,35183;41,16472</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,1;31,91021;41,1</t>
+          <t>21,0;31,105549;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,1;31,45510;41,1</t>
+          <t>21,0;31,52741;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14363;31,2641;41,2131</t>
+          <t>21,7181;31,3962;41,1893</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,1;31,10250;41,1</t>
+          <t>21,0;31,11886;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,1;31,5125;41,1</t>
+          <t>21,0;31,5939;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>127545</v>
+        <v>63772.776298</v>
       </c>
       <c r="O17" t="n">
-        <v>23455</v>
+        <v>35183.26650825</v>
       </c>
       <c r="P17" t="n">
-        <v>18537</v>
+        <v>16472.20710265</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>91021</v>
+        <v>105549.79952475</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>45510</v>
+        <v>52741.39188951001</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14363</v>
+        <v>7181.884171000001</v>
       </c>
       <c r="X17" t="n">
-        <v>2641</v>
+        <v>3962.21595525</v>
       </c>
       <c r="Y17" t="n">
-        <v>2131</v>
+        <v>1893.74149545</v>
       </c>
       <c r="Z17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>10250</v>
+        <v>11886.64786575</v>
       </c>
       <c r="AB17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>5125</v>
+        <v>5939.55039387</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5107,141 +5107,141 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7484</v>
+        <v>3571</v>
       </c>
       <c r="C2" t="n">
-        <v>1504</v>
+        <v>1970</v>
       </c>
       <c r="D2" t="n">
-        <v>779</v>
+        <v>923</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>7484</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1504</v>
+        <v>3398</v>
       </c>
       <c r="J2" t="n">
-        <v>779</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3742</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>752</v>
+        <v>1699</v>
       </c>
       <c r="P2" t="n">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>1830</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>1092</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>370</v>
       </c>
       <c r="W2" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>1884</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>942</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7484;31,1504;41,779;22,40;32,40;42,40</t>
+          <t>21,3571;31,1970;41,923;22,20;32,60;42,35</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,7484;31,1504;41,779;22,40;32,40;42,40</t>
+          <t>21,0;31,3398;41,0;22,0;32,180;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3742;31,752;41,389;22,20;32,20;42,20</t>
+          <t>21,0;31,1699;41,0;22,0;32,90;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,1830;31,1092;41,370;22,17;32,52;42,31</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,0;31,1884;41,0;22,0;32,157;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,0;31,942;41,0;22,0;32,76;42,0</t>
         </is>
       </c>
     </row>
@@ -5250,141 +5250,141 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15060</v>
+        <v>7142</v>
       </c>
       <c r="C3" t="n">
-        <v>2894</v>
+        <v>3940</v>
       </c>
       <c r="D3" t="n">
-        <v>1668</v>
+        <v>1846</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H3" t="n">
-        <v>15060</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2894</v>
+        <v>6796</v>
       </c>
       <c r="J3" t="n">
-        <v>1668</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7530</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1447</v>
+        <v>3398</v>
       </c>
       <c r="P3" t="n">
-        <v>834</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>2108</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>1214</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>459</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>2094</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>315</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>1047</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,15060;31,2894;41,1668;22,80;32,80;42,80</t>
+          <t>21,7142;31,3940;41,1846;22,40;32,120;42,71</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,15060;31,2894;41,1668;22,80;32,80;42,80</t>
+          <t>21,0;31,6796;41,0;22,0;32,360;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,7530;31,1447;41,834;22,40;32,40;42,40</t>
+          <t>21,0;31,3398;41,0;22,0;32,180;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,2108;31,1214;41,459;22,35;32,105;42,62</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,0;31,2094;41,0;22,0;32,315;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,0;31,1047;41,0;22,0;32,157;42,0</t>
         </is>
       </c>
     </row>
@@ -5393,141 +5393,141 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22496</v>
+        <v>10713</v>
       </c>
       <c r="C4" t="n">
-        <v>4150</v>
+        <v>5910</v>
       </c>
       <c r="D4" t="n">
-        <v>2704</v>
+        <v>2769</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H4" t="n">
-        <v>22496</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4150</v>
+        <v>10194</v>
       </c>
       <c r="J4" t="n">
-        <v>2704</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>11248</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2075</v>
+        <v>5097</v>
       </c>
       <c r="P4" t="n">
-        <v>1352</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>2581</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>1427</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>615</v>
       </c>
       <c r="W4" t="n">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="X4" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>2461</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>472</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>1230</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,22496;31,4150;41,2704;22,120;32,120;42,120</t>
+          <t>21,10713;31,5910;41,2769;22,60;32,180;42,106</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,22496;31,4150;41,2704;22,120;32,120;42,120</t>
+          <t>21,0;31,10194;41,0;22,0;32,540;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,11248;31,2075;41,1352;22,60;32,60;42,60</t>
+          <t>21,0;31,5097;41,0;22,0;32,270;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,2581;31,1427;41,615;22,52;32,157;42,93</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,0;31,2461;41,0;22,0;32,472;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,0;31,1230;41,0;22,0;32,234;42,0</t>
         </is>
       </c>
     </row>
@@ -5536,141 +5536,141 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29924</v>
+        <v>14284</v>
       </c>
       <c r="C5" t="n">
-        <v>5514</v>
+        <v>7880</v>
       </c>
       <c r="D5" t="n">
-        <v>3640</v>
+        <v>3692</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="H5" t="n">
-        <v>29924</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5514</v>
+        <v>13592</v>
       </c>
       <c r="J5" t="n">
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>720</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>14962</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2757</v>
+        <v>6796</v>
       </c>
       <c r="P5" t="n">
-        <v>1820</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>2767</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>1529</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>669</v>
       </c>
       <c r="W5" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="X5" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>2638</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>630</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>1319</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>315</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,29924;31,5514;41,3640;22,160;32,160;42,160</t>
+          <t>21,14284;31,7880;41,3692;22,80;32,240;42,142</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,29924;31,5514;41,3640;22,160;32,160;42,160</t>
+          <t>21,0;31,13592;41,0;22,0;32,720;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,14962;31,2757;41,1820;22,80;32,80;42,80</t>
+          <t>21,0;31,6796;41,0;22,0;32,360;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,2767;31,1529;41,669;22,70;32,210;42,124</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,0;31,2638;41,0;22,0;32,630;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,0;31,1319;41,0;22,0;32,315;42,0</t>
         </is>
       </c>
     </row>
@@ -5679,141 +5679,141 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37322</v>
+        <v>17856</v>
       </c>
       <c r="C6" t="n">
-        <v>6872</v>
+        <v>9851</v>
       </c>
       <c r="D6" t="n">
-        <v>4593</v>
+        <v>4615</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="H6" t="n">
-        <v>37322</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6872</v>
+        <v>16990</v>
       </c>
       <c r="J6" t="n">
-        <v>4593</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>18661</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3436</v>
+        <v>8495</v>
       </c>
       <c r="P6" t="n">
-        <v>2296</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>2966</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>1638</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>728</v>
       </c>
       <c r="W6" t="n">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>2825</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>787</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>1412</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>391</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,37322;31,6872;41,4593;22,200;32,200;42,200</t>
+          <t>21,17856;31,9851;41,4615;22,100;32,300;42,177</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,37322;31,6872;41,4593;22,200;32,200;42,200</t>
+          <t>21,0;31,16990;41,0;22,0;32,900;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,18661;31,3436;41,2296;22,100;32,100;42,100</t>
+          <t>21,0;31,8495;41,0;22,0;32,450;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,2966;31,1638;41,728;22,87;32,262;42,155</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,0;31,2825;41,0;22,0;32,787;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,0;31,1412;41,0;22,0;32,391;42,0</t>
         </is>
       </c>
     </row>
@@ -5822,141 +5822,141 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>43514</v>
+        <v>21427</v>
       </c>
       <c r="C7" t="n">
-        <v>8008</v>
+        <v>11821</v>
       </c>
       <c r="D7" t="n">
-        <v>5956</v>
+        <v>5538</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F7" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="H7" t="n">
-        <v>43514</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8008</v>
+        <v>20388</v>
       </c>
       <c r="J7" t="n">
-        <v>5956</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>1080</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>21757</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4004</v>
+        <v>10194</v>
       </c>
       <c r="P7" t="n">
-        <v>2978</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>3177</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1754</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>791</v>
       </c>
       <c r="W7" t="n">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="X7" t="n">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>3025</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>945</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>1512</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>472</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,43514;31,8008;41,5956;22,240;32,240;42,240</t>
+          <t>21,21427;31,11821;41,5538;22,120;32,360;42,213</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,43514;31,8008;41,5956;22,240;32,240;42,240</t>
+          <t>21,0;31,20388;41,0;22,0;32,1080;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,21757;31,4004;41,2978;22,120;32,120;42,120</t>
+          <t>21,0;31,10194;41,0;22,0;32,540;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,3177;31,1754;41,791;22,105;32,315;42,186</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,0;31,3025;41,0;22,0;32,945;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,0;31,1512;41,0;22,0;32,472;42,0</t>
         </is>
       </c>
     </row>
@@ -5965,141 +5965,141 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>49689</v>
+        <v>24998</v>
       </c>
       <c r="C8" t="n">
-        <v>9141</v>
+        <v>13791</v>
       </c>
       <c r="D8" t="n">
-        <v>7327</v>
+        <v>6461</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="H8" t="n">
-        <v>49689</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>9141</v>
+        <v>23786</v>
       </c>
       <c r="J8" t="n">
-        <v>7327</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>1260</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>24844</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4570</v>
+        <v>11893</v>
       </c>
       <c r="P8" t="n">
-        <v>3663</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>630</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>3401</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>1877</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>859</v>
       </c>
       <c r="W8" t="n">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="X8" t="n">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>3238</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>1102</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>1619</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>549</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,49689;31,9141;41,7327;22,280;32,280;42,280</t>
+          <t>21,24998;31,13791;41,6461;22,140;32,420;42,248</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,49689;31,9141;41,7327;22,280;32,280;42,280</t>
+          <t>21,0;31,23786;41,0;22,0;32,1260;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,24844;31,4570;41,3663;22,140;32,140;42,140</t>
+          <t>21,0;31,11893;41,0;22,0;32,630;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,3401;31,1877;41,859;22,122;32,367;42,217</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,0;31,3238;41,0;22,0;32,1102;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,0;31,1619;41,0;22,0;32,549;42,0</t>
         </is>
       </c>
     </row>
@@ -6108,141 +6108,141 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>56335</v>
+        <v>28569</v>
       </c>
       <c r="C9" t="n">
-        <v>10359</v>
+        <v>15761</v>
       </c>
       <c r="D9" t="n">
-        <v>8540</v>
+        <v>7384</v>
       </c>
       <c r="E9" t="n">
-        <v>315</v>
+        <v>157</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="H9" t="n">
-        <v>56335</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10359</v>
+        <v>27184</v>
       </c>
       <c r="J9" t="n">
-        <v>8540</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>1417</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>28167</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>5179</v>
+        <v>13592</v>
       </c>
       <c r="P9" t="n">
-        <v>4270</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>706</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>3779</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>2085</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>973</v>
       </c>
       <c r="W9" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="X9" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>3596</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>1260</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>1798</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>630</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,56335;31,10359;41,8540;22,315;32,315;42,315</t>
+          <t>21,28569;31,15761;41,7384;22,157;32,472;42,280</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,56335;31,10359;41,8540;22,315;32,315;42,315</t>
+          <t>21,0;31,27184;41,0;22,0;32,1417;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,28167;31,5179;41,4270;22,157;32,157;42,157</t>
+          <t>21,0;31,13592;41,0;22,0;32,706;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,3779;31,2085;41,973;22,140;32,420;42,248</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,0;31,3596;41,0;22,0;32,1260;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,0;31,1798;41,0;22,0;32,630;42,0</t>
         </is>
       </c>
     </row>
@@ -6251,141 +6251,141 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>63942</v>
+        <v>32140</v>
       </c>
       <c r="C10" t="n">
-        <v>11758</v>
+        <v>17731</v>
       </c>
       <c r="D10" t="n">
-        <v>9406</v>
+        <v>8307</v>
       </c>
       <c r="E10" t="n">
-        <v>335</v>
+        <v>167</v>
       </c>
       <c r="F10" t="n">
-        <v>335</v>
+        <v>502</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="H10" t="n">
-        <v>63942</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>11758</v>
+        <v>30582</v>
       </c>
       <c r="J10" t="n">
-        <v>9406</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>1507</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>31971</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5879</v>
+        <v>15291</v>
       </c>
       <c r="P10" t="n">
-        <v>4703</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>751</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>4092</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>2257</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1067</v>
       </c>
       <c r="W10" t="n">
-        <v>315</v>
+        <v>157</v>
       </c>
       <c r="X10" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>3893</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>1417</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>1946</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>706</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,63942;31,11758;41,9406;22,335;32,335;42,335</t>
+          <t>21,32140;31,17731;41,8307;22,167;32,502;42,297</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,63942;31,11758;41,9406;22,335;32,335;42,335</t>
+          <t>21,0;31,30582;41,0;22,0;32,1507;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,31971;31,5879;41,4703;22,167;32,167;42,167</t>
+          <t>21,0;31,15291;41,0;22,0;32,751;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,4092;31,2257;41,1067;22,157;32,472;42,280</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,0;31,3893;41,0;22,0;32,1417;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,0;31,1946;41,0;22,0;32,706;42,0</t>
         </is>
       </c>
     </row>
@@ -6394,141 +6394,141 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>71425</v>
+        <v>35712</v>
       </c>
       <c r="C11" t="n">
-        <v>13135</v>
+        <v>19702</v>
       </c>
       <c r="D11" t="n">
-        <v>10381</v>
+        <v>9230</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="H11" t="n">
-        <v>71425</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>13135</v>
+        <v>33981</v>
       </c>
       <c r="J11" t="n">
-        <v>10381</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>1575</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>35712</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6567</v>
+        <v>16990</v>
       </c>
       <c r="P11" t="n">
-        <v>5190</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>787</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4411</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2433</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1164</v>
+      </c>
+      <c r="W11" t="n">
         <v>175</v>
       </c>
-      <c r="R11" t="n">
-        <v>175</v>
-      </c>
-      <c r="S11" t="n">
-        <v>175</v>
-      </c>
-      <c r="T11" t="n">
-        <v>8582</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1497</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1368</v>
-      </c>
-      <c r="W11" t="n">
-        <v>350</v>
-      </c>
       <c r="X11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>4197</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>1575</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>2098</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>787</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,71425;31,13135;41,10381;22,350;32,350;42,350</t>
+          <t>21,35712;31,19702;41,9230;22,175;32,525;42,311</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,71425;31,13135;41,10381;22,350;32,350;42,350</t>
+          <t>21,0;31,33981;41,0;22,0;32,1575;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,35712;31,6567;41,5190;22,175;32,175;42,175</t>
+          <t>21,0;31,16990;41,0;22,0;32,787;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,4411;31,2433;41,1164;22,175;32,525;42,311</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,0;31,4197;41,0;22,0;32,1575;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,0;31,2098;41,0;22,0;32,787;42,0</t>
         </is>
       </c>
     </row>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5142300.1536816</v>
+        <v>5241784.929979599</v>
       </c>
       <c r="U2" t="n">
-        <v>912188.9820052</v>
+        <v>967074.24851345</v>
       </c>
       <c r="V2" t="n">
-        <v>744846.412339</v>
+        <v>770548.61944165</v>
       </c>
       <c r="W2" t="n">
         <v>5640</v>
@@ -6886,8 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,139530;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,69731;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11314574.629595</v>
       </c>
@@ -6907,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>625980.8060451625</v>
       </c>
       <c r="AS2" t="n">
-        <v>15736140.00046673</v>
+        <v>16362120.80651189</v>
       </c>
     </row>
     <row r="3">
@@ -6974,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>647424.5501032</v>
+        <v>659017.4342742</v>
       </c>
       <c r="U3" t="n">
-        <v>134139.1568324</v>
+        <v>140534.37278765</v>
       </c>
       <c r="V3" t="n">
-        <v>98000.92326700001</v>
+        <v>101058.66476245</v>
       </c>
       <c r="W3" t="n">
         <v>5640</v>
@@ -7021,8 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,16083;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,8037;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1282095.818515</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>73301.8878610625</v>
       </c>
       <c r="AS3" t="n">
-        <v>2153359.04103201</v>
+        <v>2226660.928893073</v>
       </c>
     </row>
     <row r="4">
@@ -7514,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>55306.842</v>
+        <v>58955.463684</v>
       </c>
       <c r="U7" t="n">
-        <v>10569.25</v>
+        <v>12585.5535</v>
       </c>
       <c r="V7" t="n">
-        <v>5458.116</v>
+        <v>6395.298406</v>
       </c>
       <c r="W7" t="n">
         <v>1380</v>
@@ -7561,8 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,3536;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,1768;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>116184.534</v>
       </c>
@@ -7582,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>22949.9146685</v>
       </c>
       <c r="AS7" t="n">
-        <v>164736.834</v>
+        <v>187686.7486685</v>
       </c>
     </row>
     <row r="8">
@@ -7649,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>55539.70705200001</v>
+        <v>62836.95042000001</v>
       </c>
       <c r="U8" t="n">
-        <v>10600.119</v>
+        <v>14632.726</v>
       </c>
       <c r="V8" t="n">
-        <v>5482.428696</v>
+        <v>7357.1987196</v>
       </c>
       <c r="W8" t="n">
         <v>1380</v>
@@ -7696,8 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,7073;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,3536;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>116184.534</v>
       </c>
@@ -7717,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>45902.1593037</v>
       </c>
       <c r="AS8" t="n">
-        <v>165322.493154</v>
+        <v>211224.6524577001</v>
       </c>
     </row>
     <row r="9">
@@ -7919,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>235427.6828484</v>
+        <v>239352.1633312</v>
       </c>
       <c r="U10" t="n">
-        <v>42839.53689600001</v>
+        <v>45005.00624</v>
       </c>
       <c r="V10" t="n">
-        <v>26672.8925262</v>
+        <v>27670.99950815</v>
       </c>
       <c r="W10" t="n">
         <v>3620</v>
@@ -7966,8 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,3984;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,1992;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>525745.028775</v>
       </c>
@@ -7987,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>24605.33410261251</v>
       </c>
       <c r="AS10" t="n">
-        <v>697211.6194564501</v>
+        <v>721816.9535590626</v>
       </c>
     </row>
     <row r="11">
@@ -8054,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>246032.0973324</v>
+        <v>265655.4997464</v>
       </c>
       <c r="U11" t="n">
-        <v>44142.665856</v>
+        <v>54971.012576</v>
       </c>
       <c r="V11" t="n">
-        <v>27960.4407882</v>
+        <v>32955.26752549</v>
       </c>
       <c r="W11" t="n">
         <v>3920</v>
@@ -8101,8 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,19922;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,9961;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>525745.028775</v>
       </c>
@@ -8122,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>123059.2485214175</v>
       </c>
       <c r="AS11" t="n">
-        <v>724706.0262709501</v>
+        <v>847765.2747923675</v>
       </c>
     </row>
     <row r="12">
@@ -8189,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>256636.5118164</v>
+        <v>276259.9142304</v>
       </c>
       <c r="U12" t="n">
-        <v>45445.794816</v>
+        <v>56274.141536</v>
       </c>
       <c r="V12" t="n">
-        <v>29247.9890502</v>
+        <v>34242.81578749</v>
       </c>
       <c r="W12" t="n">
         <v>4220</v>
@@ -8236,8 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,19922;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,9961;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>525745.028775</v>
       </c>
@@ -8257,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>123059.2485214175</v>
       </c>
       <c r="AS12" t="n">
-        <v>752200.43308545</v>
+        <v>875259.6816068675</v>
       </c>
     </row>
     <row r="13">
@@ -8324,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>267240.9263004</v>
+        <v>306045.8805249</v>
       </c>
       <c r="U13" t="n">
-        <v>46748.923776</v>
+        <v>68161.28053600001</v>
       </c>
       <c r="V13" t="n">
-        <v>30535.5373122</v>
+        <v>40432.91649467</v>
       </c>
       <c r="W13" t="n">
         <v>4520</v>
@@ -8371,8 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,39112;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,19553;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>525745.028775</v>
       </c>
@@ -8392,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>243460.1461677025</v>
       </c>
       <c r="AS13" t="n">
-        <v>779694.83989995</v>
+        <v>1023154.986067652</v>
       </c>
     </row>
     <row r="14">
@@ -8459,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>267240.9263004</v>
+        <v>286864.3287144</v>
       </c>
       <c r="U14" t="n">
-        <v>46748.923776</v>
+        <v>57577.270496</v>
       </c>
       <c r="V14" t="n">
-        <v>30535.5373122</v>
+        <v>35530.36404949</v>
       </c>
       <c r="W14" t="n">
         <v>4440</v>
@@ -8506,8 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,19922;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,9961;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>525745.028775</v>
       </c>
@@ -8527,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>123059.2485214175</v>
       </c>
       <c r="AS14" t="n">
-        <v>779511.83989995</v>
+        <v>902571.0884213675</v>
       </c>
     </row>
     <row r="15">
@@ -8594,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>400250.7105364</v>
+        <v>424857.6165452001</v>
       </c>
       <c r="U15" t="n">
-        <v>70500.75880559999</v>
+        <v>84078.35250399999</v>
       </c>
       <c r="V15" t="n">
-        <v>51995.264902</v>
+        <v>58300.7700811</v>
       </c>
       <c r="W15" t="n">
         <v>4600</v>
@@ -8641,8 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,25657;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,12828;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>809687.9915100001</v>
       </c>
@@ -8662,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>154548.957307585</v>
       </c>
       <c r="AS15" t="n">
-        <v>1200168.71948154</v>
+        <v>1354717.676789125</v>
       </c>
     </row>
     <row r="16">
@@ -8729,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>400250.7105364</v>
+        <v>428958.60088</v>
       </c>
       <c r="U16" t="n">
-        <v>70500.75880559999</v>
+        <v>86341.1181204</v>
       </c>
       <c r="V16" t="n">
-        <v>51995.264902</v>
+        <v>59349.8859556</v>
       </c>
       <c r="W16" t="n">
         <v>4680</v>
@@ -8776,8 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,29934;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,14967;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>809687.9915100001</v>
       </c>
@@ -8797,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>180295.44067392</v>
       </c>
       <c r="AS16" t="n">
-        <v>1200351.71948154</v>
+        <v>1380647.16015546</v>
       </c>
     </row>
     <row r="17">
@@ -8864,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>998535.4545476</v>
+        <v>1036330.64631522</v>
       </c>
       <c r="U17" t="n">
-        <v>179317.1605456</v>
+        <v>200180.80643328</v>
       </c>
       <c r="V17" t="n">
-        <v>149526.9784</v>
+        <v>159449.5816</v>
       </c>
       <c r="W17" t="n">
         <v>5000</v>
@@ -8911,8 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,42502;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,21224;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1855738.46696</v>
       </c>
@@ -8932,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>238809.316792612</v>
       </c>
       <c r="AS17" t="n">
-        <v>3111008.98811224</v>
+        <v>3349818.304904852</v>
       </c>
     </row>
     <row r="18">
@@ -8999,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5142300.1536816</v>
+        <v>5241784.929979599</v>
       </c>
       <c r="U18" t="n">
-        <v>912188.9820052</v>
+        <v>967074.24851345</v>
       </c>
       <c r="V18" t="n">
-        <v>744846.412339</v>
+        <v>770548.61944165</v>
       </c>
       <c r="W18" t="n">
         <v>5640</v>
@@ -9046,8 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,139530;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,69731;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11314574.629595</v>
       </c>
@@ -9067,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>625980.8060451625</v>
       </c>
       <c r="AS18" t="n">
-        <v>15736140.00046673</v>
+        <v>16362120.80651189</v>
       </c>
     </row>
     <row r="19">
@@ -9134,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8496842.8824328</v>
+        <v>8596327.658730799</v>
       </c>
       <c r="U19" t="n">
-        <v>1507593.5300108</v>
+        <v>1562478.79651905</v>
       </c>
       <c r="V19" t="n">
-        <v>1224084.506548</v>
+        <v>1249786.71365065</v>
       </c>
       <c r="W19" t="n">
         <v>6680</v>
@@ -9181,8 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,139530;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,69731;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18360300.03253</v>
       </c>
@@ -9202,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>625980.8060451626</v>
       </c>
       <c r="AS19" t="n">
-        <v>25956972.15215832</v>
+        <v>26582952.95820349</v>
       </c>
     </row>
     <row r="20">
@@ -9269,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>211116.962703</v>
+        <v>213258.13699385</v>
       </c>
       <c r="U20" t="n">
-        <v>41634.825644</v>
+        <v>42916.1896812</v>
       </c>
       <c r="V20" t="n">
-        <v>23471.9835856</v>
+        <v>23906.55967816</v>
       </c>
       <c r="W20" t="n">
         <v>1380</v>
@@ -9316,8 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,2455;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,1218;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>554918.4476000001</v>
       </c>
@@ -9337,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>13481.39867975</v>
       </c>
       <c r="AS20" t="n">
-        <v>638479.1652638</v>
+        <v>651960.56394355</v>
       </c>
     </row>
     <row r="21">
@@ -9404,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>275795.6710296</v>
+        <v>278661.2754842</v>
       </c>
       <c r="U21" t="n">
-        <v>51896.0821032</v>
+        <v>53546.3056301</v>
       </c>
       <c r="V21" t="n">
-        <v>32752.732664</v>
+        <v>33377.5665688</v>
       </c>
       <c r="W21" t="n">
         <v>2160</v>
@@ -9451,8 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,3402;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,1699;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>657742.16342</v>
       </c>
@@ -9472,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>17844.94174281</v>
       </c>
       <c r="AS21" t="n">
-        <v>830057.85035968</v>
+        <v>847902.7921024901</v>
       </c>
     </row>
     <row r="22">
@@ -9539,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>384622.4653996</v>
+        <v>389958.07547862</v>
       </c>
       <c r="U22" t="n">
-        <v>69341.74625359999</v>
+        <v>72294.93661507999</v>
       </c>
       <c r="V22" t="n">
-        <v>49006.3737794</v>
+        <v>50309.25547885001</v>
       </c>
       <c r="W22" t="n">
         <v>4220</v>
@@ -9586,8 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,6775;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,3374;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>832823.467785</v>
       </c>
@@ -9607,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>33204.1933450695</v>
       </c>
       <c r="AS22" t="n">
-        <v>1158679.16378099</v>
+        <v>1191883.357126059</v>
       </c>
     </row>
     <row r="23">
@@ -9674,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>442921.6360378</v>
+        <v>449932.93735286</v>
       </c>
       <c r="U23" t="n">
-        <v>81086.0929288</v>
+        <v>84962.88679934001</v>
       </c>
       <c r="V23" t="n">
-        <v>58747.674439</v>
+        <v>60500.55844855</v>
       </c>
       <c r="W23" t="n">
         <v>4680</v>
@@ -9721,8 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,9242;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,4610;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>909593.047205</v>
       </c>
@@ -9742,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>43840.2620766985</v>
       </c>
       <c r="AS23" t="n">
-        <v>1354887.80527077</v>
+        <v>1398728.067347469</v>
       </c>
     </row>
     <row r="24">
@@ -9809,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>509926.56644</v>
+        <v>518368.8479999999</v>
       </c>
       <c r="U24" t="n">
-        <v>98540.62724720001</v>
+        <v>103199.3464148</v>
       </c>
       <c r="V24" t="n">
-        <v>71691.7789132</v>
+        <v>73846.28727496001</v>
       </c>
       <c r="W24" t="n">
         <v>5000</v>
@@ -9856,8 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,11317;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,5658;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1030680.26247</v>
       </c>
@@ -9877,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>52975.86689656001</v>
       </c>
       <c r="AS24" t="n">
-        <v>1617489.62319658</v>
+        <v>1670465.49009314</v>
       </c>
     </row>
     <row r="25">
@@ -9944,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>647424.5501032</v>
+        <v>659017.4342742</v>
       </c>
       <c r="U25" t="n">
-        <v>134139.1568324</v>
+        <v>140534.37278765</v>
       </c>
       <c r="V25" t="n">
-        <v>98000.92326700001</v>
+        <v>101058.66476245</v>
       </c>
       <c r="W25" t="n">
         <v>5640</v>
@@ -9991,8 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,16083;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,8037;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1282095.818515</v>
       </c>
@@ -10012,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>73301.8878610625</v>
       </c>
       <c r="AS25" t="n">
-        <v>2153359.04103201</v>
+        <v>2226660.928893073</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/38.xlsx
+++ b/opm_hero_property/heroes/38.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>38</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5241784.929979599</v>
+        <v>6116382.621627599</v>
       </c>
       <c r="U2" t="n">
-        <v>967074.24851345</v>
+        <v>1127911.84509745</v>
       </c>
       <c r="V2" t="n">
-        <v>770548.61944165</v>
+        <v>897664.85636165</v>
       </c>
       <c r="W2" t="n">
         <v>5640</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11314574.629595</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1819149.07087173</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2912205.3703676</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1810195.5</v>
+      </c>
+      <c r="AU2" t="n">
         <v>625980.8060451625</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16362120.80651189</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19077416.27687949</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>38</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>659017.4342742</v>
+        <v>757510.9047702</v>
       </c>
       <c r="U3" t="n">
-        <v>140534.37278765</v>
+        <v>158647.03519565</v>
       </c>
       <c r="V3" t="n">
-        <v>101058.66476245</v>
+        <v>115672.02552245</v>
       </c>
       <c r="W3" t="n">
         <v>5640</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1282095.818515</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>207514.97251701</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>583182.2654812001</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>204996</v>
+      </c>
+      <c r="AU3" t="n">
         <v>73301.8878610625</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2226660.928893073</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2534158.594374273</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>38</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7370.454</v>
+        <v>7831.454</v>
       </c>
       <c r="U4" t="n">
-        <v>1628.8603</v>
+        <v>1712.8603</v>
       </c>
       <c r="V4" t="n">
-        <v>562.6449</v>
+        <v>629.6449</v>
       </c>
       <c r="W4" t="n">
         <v>600</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19121.948245</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4456.85</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23578.798245</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1425.85</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25004.648245</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>38</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19648.2617</v>
+        <v>33187.2617</v>
       </c>
       <c r="U5" t="n">
-        <v>4082.3664</v>
+        <v>6571.3664</v>
       </c>
       <c r="V5" t="n">
-        <v>1710.978</v>
+        <v>3677.978</v>
       </c>
       <c r="W5" t="n">
         <v>777</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48595.96336</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11828.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60424.76336</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>42023.35000000001</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>102448.11336</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>38</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>55306.842</v>
+        <v>113350.842</v>
       </c>
       <c r="U6" t="n">
-        <v>10569.25</v>
+        <v>21243.25</v>
       </c>
       <c r="V6" t="n">
-        <v>5458.116</v>
+        <v>13894.116</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>116184.534</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32682</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9526.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>164553.834</v>
+      <c r="AT6" t="n">
+        <v>180201.6</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>344755.434</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>38</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>58955.463684</v>
+        <v>116999.463684</v>
       </c>
       <c r="U7" t="n">
-        <v>12585.5535</v>
+        <v>23259.5535</v>
       </c>
       <c r="V7" t="n">
-        <v>6395.298406</v>
+        <v>14831.298406</v>
       </c>
       <c r="W7" t="n">
         <v>1380</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>116184.534</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32682</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>180201.6</v>
+      </c>
+      <c r="AU7" t="n">
         <v>22949.9146685</v>
       </c>
-      <c r="AS7" t="n">
-        <v>187686.7486685</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>367888.3486685001</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>38</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>62836.95042000001</v>
+        <v>120880.95042</v>
       </c>
       <c r="U8" t="n">
-        <v>14632.726</v>
+        <v>25306.726</v>
       </c>
       <c r="V8" t="n">
-        <v>7357.1987196</v>
+        <v>15793.1987196</v>
       </c>
       <c r="W8" t="n">
         <v>1380</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>116184.534</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32682</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>585.6591540000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>180201.6</v>
+      </c>
+      <c r="AU8" t="n">
         <v>45902.1593037</v>
       </c>
-      <c r="AS8" t="n">
-        <v>211224.6524577001</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>391426.2524577</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>38</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>234367.2414</v>
+        <v>408930.643814</v>
       </c>
       <c r="U9" t="n">
-        <v>42709.224</v>
+        <v>72990.00624</v>
       </c>
       <c r="V9" t="n">
-        <v>26544.1377</v>
+        <v>50581.729077</v>
       </c>
       <c r="W9" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1620</v>
+        <v>1630</v>
       </c>
       <c r="AA9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB9" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>525745.028775</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>694511.6787750002</v>
+        <v>44587.60028775</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>422240.15</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1216348.62906275</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>38</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>239352.1633312</v>
+        <v>470963.0059286136</v>
       </c>
       <c r="U10" t="n">
-        <v>45005.00624</v>
+        <v>84717.64486528</v>
       </c>
       <c r="V10" t="n">
-        <v>27670.99950815</v>
+        <v>58136.5455210827</v>
       </c>
       <c r="W10" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1620</v>
+        <v>1630</v>
       </c>
       <c r="AA10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB10" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>525745.028775</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2699.94068145</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44587.60028775</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>422240.15</v>
+      </c>
+      <c r="AU10" t="n">
         <v>24605.33410261251</v>
       </c>
-      <c r="AS10" t="n">
-        <v>721816.9535590626</v>
+      <c r="AV10" t="n">
+        <v>253435.5883984587</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1402741.892245271</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>38</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>265655.4997464</v>
+        <v>561914.5223992873</v>
       </c>
       <c r="U11" t="n">
-        <v>54971.012576</v>
+        <v>103753.115429376</v>
       </c>
       <c r="V11" t="n">
-        <v>32955.26752549</v>
+        <v>70641.93036273483</v>
       </c>
       <c r="W11" t="n">
-        <v>3920</v>
+        <v>3930</v>
       </c>
       <c r="X11" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1620</v>
+        <v>1630</v>
       </c>
       <c r="AA11" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB11" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>525745.028775</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>30194.34749595</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44587.60028775</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>422240.15</v>
+      </c>
+      <c r="AU11" t="n">
         <v>123059.2485214175</v>
       </c>
-      <c r="AS11" t="n">
-        <v>847765.2747923675</v>
+      <c r="AV11" t="n">
+        <v>422184.4933675895</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1697439.118447707</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>38</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>276259.9142304</v>
+        <v>655032.0622939323</v>
       </c>
       <c r="U12" t="n">
-        <v>56274.141536</v>
+        <v>114363.153175296</v>
       </c>
       <c r="V12" t="n">
-        <v>34242.81578749</v>
+        <v>82768.56826539859</v>
       </c>
       <c r="W12" t="n">
-        <v>4220</v>
+        <v>4240</v>
       </c>
       <c r="X12" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1620</v>
+        <v>1640</v>
       </c>
       <c r="AA12" t="n">
-        <v>2160</v>
+        <v>2180</v>
       </c>
       <c r="AB12" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>525745.028775</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>57688.75431045001</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44587.60028775</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>422240.15</v>
+      </c>
+      <c r="AU12" t="n">
         <v>123059.2485214175</v>
       </c>
-      <c r="AS12" t="n">
-        <v>875259.6816068675</v>
+      <c r="AV12" t="n">
+        <v>631360.054834899</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1934109.086729517</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>38</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>306045.8805249</v>
+        <v>781515.5498806167</v>
       </c>
       <c r="U13" t="n">
-        <v>68161.28053600001</v>
+        <v>139348.186094296</v>
       </c>
       <c r="V13" t="n">
-        <v>40432.91649467</v>
+        <v>100072.1252022801</v>
       </c>
       <c r="W13" t="n">
-        <v>4520</v>
+        <v>4570</v>
       </c>
       <c r="X13" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1620</v>
+        <v>1670</v>
       </c>
       <c r="AA13" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB13" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>525745.028775</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>85183.16112495001</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44587.60028775</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>422240.15</v>
+      </c>
+      <c r="AU13" t="n">
         <v>243460.1461677025</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1023154.986067652</v>
+      <c r="AV13" t="n">
+        <v>882695.4174889673</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2333339.75384437</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>38</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>286864.3287144</v>
+        <v>893193.3502225631</v>
       </c>
       <c r="U14" t="n">
-        <v>57577.270496</v>
+        <v>143403.062001664</v>
       </c>
       <c r="V14" t="n">
-        <v>35530.36404949</v>
+        <v>105381.8423567258</v>
       </c>
       <c r="W14" t="n">
-        <v>4440</v>
+        <v>4490</v>
       </c>
       <c r="X14" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1560</v>
+        <v>1610</v>
       </c>
       <c r="AA14" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB14" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>525745.028775</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>85183.16112495001</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39155.4</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44404.60028775</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>422240.15</v>
+      </c>
+      <c r="AU14" t="n">
         <v>123059.2485214175</v>
       </c>
-      <c r="AS14" t="n">
-        <v>902571.0884213675</v>
+      <c r="AV14" t="n">
+        <v>1173283.6328761</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2503344.071585218</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>38</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>424857.6165452001</v>
+        <v>1423578.663668608</v>
       </c>
       <c r="U15" t="n">
-        <v>84078.35250399999</v>
+        <v>238002.49454444</v>
       </c>
       <c r="V15" t="n">
-        <v>58300.7700811</v>
+        <v>178582.9108066073</v>
       </c>
       <c r="W15" t="n">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="X15" t="n">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1680</v>
+        <v>1780</v>
       </c>
       <c r="AA15" t="n">
-        <v>2160</v>
+        <v>2260</v>
       </c>
       <c r="AB15" t="n">
-        <v>720</v>
+        <v>1120</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>809687.9915100001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>131059.32797154</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111894</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128071.2598302</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>772561.05</v>
+      </c>
+      <c r="AU15" t="n">
         <v>154548.957307585</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1354717.676789125</v>
+      <c r="AV15" t="n">
+        <v>1964881.62654391</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4108337.613163236</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>38</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>428958.60088</v>
+        <v>1454843.021437452</v>
       </c>
       <c r="U16" t="n">
-        <v>86341.1181204</v>
+        <v>244800.6938101224</v>
       </c>
       <c r="V16" t="n">
-        <v>59349.8859556</v>
+        <v>182941.7714332404</v>
       </c>
       <c r="W16" t="n">
-        <v>4680</v>
+        <v>4880</v>
       </c>
       <c r="X16" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1740</v>
+        <v>1940</v>
       </c>
       <c r="AA16" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB16" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>809687.9915100001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>131059.32797154</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112077</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128254.2598302</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>772561.05</v>
+      </c>
+      <c r="AU16" t="n">
         <v>180295.44067392</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1380647.16015546</v>
+      <c r="AV16" t="n">
+        <v>2043570.524482768</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4212955.994468428</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>38</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1036330.64631522</v>
+        <v>2637638.705830524</v>
       </c>
       <c r="U17" t="n">
-        <v>200180.80643328</v>
+        <v>441232.0725571482</v>
       </c>
       <c r="V17" t="n">
-        <v>159449.5816</v>
+        <v>355945.9769472001</v>
       </c>
       <c r="W17" t="n">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="X17" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>1980</v>
+        <v>2180</v>
       </c>
       <c r="AA17" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB17" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1855738.46696</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>300250.77115224</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685015</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>759211.5386784001</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1234366.65</v>
+      </c>
+      <c r="AU17" t="n">
         <v>238809.316792612</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3349818.304904852</v>
+      <c r="AV17" t="n">
+        <v>3088252.880337995</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7746634.373921247</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>38</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5241784.929979599</v>
+        <v>9277672.272547545</v>
       </c>
       <c r="U18" t="n">
-        <v>967074.24851345</v>
+        <v>1529549.042818949</v>
       </c>
       <c r="V18" t="n">
-        <v>770548.61944165</v>
+        <v>1226751.053412325</v>
       </c>
       <c r="W18" t="n">
-        <v>5640</v>
+        <v>5840</v>
       </c>
       <c r="X18" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2460</v>
+        <v>2660</v>
       </c>
       <c r="AA18" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB18" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11314574.629595</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1819149.07087173</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2912205.3703676</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1810195.5</v>
+      </c>
+      <c r="AU18" t="n">
         <v>625980.8060451625</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16362120.80651189</v>
+      <c r="AV18" t="n">
+        <v>7827231.948239667</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26904648.22511916</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>38</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8596327.658730799</v>
+        <v>15975962.32477375</v>
       </c>
       <c r="U19" t="n">
-        <v>1562478.79651905</v>
+        <v>2711300.859820475</v>
       </c>
       <c r="V19" t="n">
-        <v>1249786.71365065</v>
+        <v>2181746.08047917</v>
       </c>
       <c r="W19" t="n">
-        <v>6680</v>
+        <v>6880</v>
       </c>
       <c r="X19" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>3240</v>
+        <v>3440</v>
       </c>
       <c r="AA19" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB19" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18360300.03253</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2950312.71962832</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470479</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6224400.2548795</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1810195.5</v>
+      </c>
+      <c r="AU19" t="n">
         <v>625980.8060451626</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26582952.95820349</v>
+      <c r="AV19" t="n">
+        <v>16103556.50720727</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47250626.22029025</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>38</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>213258.13699385</v>
+        <v>219794.13699385</v>
       </c>
       <c r="U20" t="n">
-        <v>42916.1896812</v>
+        <v>44118.1896812</v>
       </c>
       <c r="V20" t="n">
-        <v>23906.55967816</v>
+        <v>24875.55967816</v>
       </c>
       <c r="W20" t="n">
         <v>1380</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>554918.4476000001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32682</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2822.0176638</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33359.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20401.55</v>
+      </c>
+      <c r="AU20" t="n">
         <v>13481.39867975</v>
       </c>
-      <c r="AS20" t="n">
-        <v>651960.56394355</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>672362.11394355</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>38</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>278661.2754842</v>
+        <v>292165.8596402</v>
       </c>
       <c r="U21" t="n">
-        <v>53546.3056301</v>
+        <v>56046.7566081</v>
       </c>
       <c r="V21" t="n">
-        <v>33377.5665688</v>
+        <v>35327.04060879999</v>
       </c>
       <c r="W21" t="n">
         <v>2160</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>657742.16342</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49023</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>37544.98693968001</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>66719.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>73288.77163420001</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>35398</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17844.94174281</v>
       </c>
-      <c r="AS21" t="n">
-        <v>847902.7921024901</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>889869.96373669</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>38</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>389958.07547862</v>
+        <v>516166.0427991619</v>
       </c>
       <c r="U22" t="n">
-        <v>72294.93661507999</v>
+        <v>91388.73200027547</v>
       </c>
       <c r="V22" t="n">
-        <v>50309.25547885001</v>
+        <v>65447.74323726941</v>
       </c>
       <c r="W22" t="n">
-        <v>4220</v>
+        <v>4270</v>
       </c>
       <c r="X22" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1620</v>
+        <v>1670</v>
       </c>
       <c r="AA22" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB22" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>832823.467785</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>91274.39599598999</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>96891.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>105211.38467785</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47810.4</v>
+      </c>
+      <c r="AU22" t="n">
         <v>33204.1933450695</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1191883.357126059</v>
+      <c r="AV22" t="n">
+        <v>289471.0754114523</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1537484.817215362</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>38</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>449932.93735286</v>
+        <v>665232.9038572935</v>
       </c>
       <c r="U23" t="n">
-        <v>84962.88679934001</v>
+        <v>121496.0114081378</v>
       </c>
       <c r="V23" t="n">
-        <v>60500.55844855</v>
+        <v>87081.07197758266</v>
       </c>
       <c r="W23" t="n">
-        <v>4680</v>
+        <v>4880</v>
       </c>
       <c r="X23" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1740</v>
+        <v>1940</v>
       </c>
       <c r="AA23" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB23" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>909593.047205</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>147204.90806577</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>153419</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>171594.3609441</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>87487.20000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>43840.2620766985</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1398728.067347469</v>
+      <c r="AV23" t="n">
+        <v>516953.918152976</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2021344.546444545</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>38</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>518368.8479999999</v>
+        <v>836656.0023856</v>
       </c>
       <c r="U24" t="n">
-        <v>103199.3464148</v>
+        <v>158238.3125848476</v>
       </c>
       <c r="V24" t="n">
-        <v>73846.28727496001</v>
+        <v>114394.8530268617</v>
       </c>
       <c r="W24" t="n">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="X24" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>1980</v>
+        <v>2180</v>
       </c>
       <c r="AA24" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB24" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1030680.26247</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>166822.91072658</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>262506.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>303700.4104988</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>139786.85</v>
+      </c>
+      <c r="AU24" t="n">
         <v>52975.86689656001</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1670465.49009314</v>
+      <c r="AV24" t="n">
+        <v>752629.2135335633</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2604075.764125504</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>38</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>659017.4342742</v>
+        <v>1430823.458298058</v>
       </c>
       <c r="U25" t="n">
-        <v>140534.37278765</v>
+        <v>271557.5824208447</v>
       </c>
       <c r="V25" t="n">
-        <v>101058.66476245</v>
+        <v>199572.7088288953</v>
       </c>
       <c r="W25" t="n">
-        <v>5640</v>
+        <v>5840</v>
       </c>
       <c r="X25" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2460</v>
+        <v>2660</v>
       </c>
       <c r="AA25" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB25" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1282095.818515</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>207514.97251701</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>583182.2654812001</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>204996</v>
+      </c>
+      <c r="AU25" t="n">
         <v>73301.8878610625</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2226660.928893073</v>
+      <c r="AV25" t="n">
+        <v>1937224.258393762</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4471382.852768034</v>
       </c>
     </row>
   </sheetData>
